--- a/notebooks_resultados_actuales/Precision_resultados_softmax_2_labels.xlsx
+++ b/notebooks_resultados_actuales/Precision_resultados_softmax_2_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/963db75de59c3a5b/TFG/Codigo/Resultados actuales (softmax 2labels) - 13 Junio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3137" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C52D1D7-8F6E-41A5-840C-5C8386588A0E}"/>
+  <xr:revisionPtr revIDLastSave="3673" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9149DA4D-B9ED-4B4A-A586-69BA1134F272}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bert" sheetId="1" r:id="rId1"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E26A9-A2F2-404A-999E-6E77A4CF5C8B}">
   <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q26:Q30"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9C387-18AF-4EA2-B4B7-6B256C0E1E13}">
   <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,27 +1820,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.83929999999999993</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.8397</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.68385000000000007</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.65710000000000002</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.72711666666666674</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -1848,27 +1860,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.83945000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.66355000000000008</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.72896666666666665</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -1876,27 +1900,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.83844999999999992</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.65850000000000009</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.67645</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.6552</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.7244666666666667</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -1904,27 +1940,39 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.8538</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.68104999999999993</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.73011666666666664</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -1932,27 +1980,39 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.83984999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.66015000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.6875</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="T9" s="10"/>
     </row>
@@ -1963,27 +2023,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.56364999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.54919999999999991</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.51149999999999995</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.53805000000000003</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.55030000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -1991,27 +2063,39 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.55580000000000007</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.53354999999999997</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.498</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.55574999999999997</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.54836666666666667</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -2019,27 +2103,39 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.52885000000000004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.5262</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.53931666666666667</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -2047,27 +2143,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.52360000000000007</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.54354999999999998</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.5796</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.55051666666666665</v>
       </c>
       <c r="T15" s="10"/>
     </row>
@@ -2076,27 +2184,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.5575</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.55325000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.5131</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.56258333333333332</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -2106,27 +2226,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.53685000000000005</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.55545</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.54199999999999993</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Z19" s="7"/>
@@ -2136,27 +2268,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.66684999999999994</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.6613</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.67071666666666674</v>
       </c>
       <c r="T20" s="10"/>
       <c r="X20" s="7"/>
@@ -2167,27 +2311,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.60865000000000002</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.6129</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.62378333333333336</v>
       </c>
       <c r="X21" s="7"/>
       <c r="Z21" s="7"/>
@@ -2197,27 +2353,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.6512</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.6663</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.67880000000000007</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.65716666666666668</v>
       </c>
       <c r="X22" s="7"/>
       <c r="Z22" s="7"/>
@@ -2227,28 +2395,40 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.56614999999999993</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.57540000000000002</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.62840000000000007</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.6643</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.59250000000000003</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.59494999999999998</v>
       </c>
       <c r="S23" s="5"/>
       <c r="X23" s="8"/>
@@ -2261,27 +2441,39 @@
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.7315666666666667</v>
       </c>
       <c r="S26" s="5"/>
     </row>
@@ -2290,27 +2482,39 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.66684999999999994</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.6613</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.67071666666666674</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
@@ -2318,27 +2522,39 @@
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.60865000000000002</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.6129</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.59370000000000001</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.62378333333333336</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
@@ -2346,27 +2562,39 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.6512</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.6663</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.67880000000000007</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.65716666666666668</v>
       </c>
       <c r="T29" s="10"/>
     </row>
@@ -2375,27 +2603,39 @@
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.56614999999999993</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.57540000000000002</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.62840000000000007</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.6643</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.59494999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2418,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7238-AC9A-4DAC-9CB9-21573789F53B}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,27 +2727,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.70374999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.75466666666666671</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2515,27 +2767,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.85834999999999995</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.70545000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.68629999999999991</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.75003333333333322</v>
       </c>
       <c r="T6" s="10"/>
     </row>
@@ -2544,27 +2808,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.69284999999999997</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.6855</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.7529499999999999</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2572,27 +2848,39 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.85704999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.70924999999999994</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.7533333333333333</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2600,27 +2888,39 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.86395</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.69070000000000009</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.75291666666666668</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -2630,27 +2930,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.41125</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.14530000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.41800000000000004</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.4143</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.41451666666666664</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -2658,27 +2970,39 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.6593</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.5897</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.63634999999999997</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.6179</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.5544</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.62625000000000008</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -2686,27 +3010,39 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.56725000000000003</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.55845</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.56730000000000003</v>
       </c>
       <c r="T14" s="10"/>
     </row>
@@ -2715,27 +3051,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.52124999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.5262</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.4889</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.54025000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -2743,27 +3091,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.56804999999999994</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.57824999999999993</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.54275000000000007</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.56301666666666661</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -2773,27 +3133,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.33765000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.3271</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.32784999999999997</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.33086666666666664</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -2801,27 +3173,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.64650000000000007</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.72110000000000019</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
@@ -2831,27 +3215,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.6641999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.72025000000000006</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.72094999999999987</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
@@ -2861,27 +3257,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.66280000000000006</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.80095000000000005</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.73794999999999999</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
@@ -2891,28 +3299,40 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.72104999999999997</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.7873</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.75390000000000001</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.72124999999999995</v>
       </c>
       <c r="T23" s="10"/>
       <c r="X23" s="8"/>
@@ -2930,27 +3350,39 @@
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.83539999999999992</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.7137</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.76286666666666658</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
@@ -2958,27 +3390,39 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.84775</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.8387</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.71714999999999995</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.73425000000000007</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.7238</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.76638333333333331</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
@@ -2986,27 +3430,39 @@
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.73025000000000007</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.7389</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.73385</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.76776666666666671</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
@@ -3087,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B49FAB-0ACA-47EA-837C-9E6960F12538}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,27 +3612,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.62850000000000006</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.57733333333333337</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -3184,27 +3652,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.64765000000000006</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.57574999999999998</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.5806</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.59495000000000009</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.60611666666666675</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -3212,27 +3692,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.5835999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.59204999999999997</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.60988333333333333</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -3241,27 +3733,39 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.57584999999999997</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.59835000000000005</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.60943333333333338</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -3269,27 +3773,39 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.64944999999999997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.57455000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.59305000000000008</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.60568333333333335</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -3299,27 +3815,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.42195000000000005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.4073</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.35175000000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.39366666666666666</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -3327,27 +3855,39 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.47609999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.4929</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.51964999999999995</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.49465000000000003</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.5091</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.49679999999999996</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -3355,27 +3895,39 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.51235000000000008</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.4839</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.51378333333333337</v>
       </c>
       <c r="T14" s="10"/>
     </row>
@@ -3384,27 +3936,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.5161</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.48969999999999997</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.50393333333333334</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -3412,27 +3976,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.51334999999999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.49544999999999995</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.49629999999999996</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.4824</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.50169999999999992</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -3442,27 +4018,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.55265000000000009</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.49834999999999996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.5151</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.4647</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.50840000000000007</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -3470,27 +4058,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.49745</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.5131</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.49028333333333335</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
@@ -3500,27 +4100,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.53079999999999994</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.50255000000000005</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.4834</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.51411666666666667</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
@@ -3530,27 +4142,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.48725000000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.49240000000000006</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.50241666666666662</v>
       </c>
       <c r="T22" s="10"/>
       <c r="X22" s="8"/>
@@ -3561,28 +4185,40 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.50045000000000006</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.5101</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.48659999999999998</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
@@ -3599,27 +4235,39 @@
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.5605</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.63436666666666663</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
@@ -3627,27 +4275,39 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.6641999999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.5877</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.59495000000000009</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.61408333333333331</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
@@ -3655,27 +4315,39 @@
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.56545000000000001</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.5906499999999999</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.61006666666666665</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
@@ -3683,27 +4355,39 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.59730000000000005</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
@@ -3711,27 +4395,39 @@
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.5867</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.59926666666666673</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -3757,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CEDD4F-00F4-4759-BADF-925A3EF47615}">
   <dimension ref="A2:Z141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,27 +4522,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.72204999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.54160000000000008</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.59304999999999997</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.61890000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -3854,27 +4562,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.72885</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.6895</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.5806</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.59854999999999992</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.6069</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.63793333333333335</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -3882,27 +4602,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.73914999999999997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.58925000000000005</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.60375000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.60450000000000004</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.64405000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -3910,27 +4642,39 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.73524999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.58505000000000007</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.59865000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.63965000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -3938,29 +4682,40 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.73039999999999994</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="10"/>
+        <v>0.63936666666666664</v>
+      </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C12" s="14" t="s">
@@ -3969,27 +4724,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.50655000000000006</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.48985000000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.50309999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -3997,56 +4764,79 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.48732500000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.46775</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.51605000000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="10"/>
+        <v>0.50255833333333333</v>
+      </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.49955000000000005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.51644999999999996</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -4054,27 +4844,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.49114999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.4778</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.50154999999999994</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.47585</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.4733</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.48951666666666666</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -4082,27 +4884,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.49975000000000003</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.4778</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.48588333333333339</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -4112,27 +4926,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.49435000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.50235000000000007</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.53769999999999996</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.5041000000000001</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -4140,27 +4966,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.52754999999999996</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.5263500000000001</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.50213333333333343</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
@@ -4170,27 +5008,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.47134999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.47619999999999996</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.50595000000000001</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
@@ -4200,27 +5050,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.49065000000000003</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.52774999999999994</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.50235000000000007</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.50691666666666668</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
@@ -4230,35 +5092,46 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.4602</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.49424999999999997</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.4773</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.51049999999999995</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.50428333333333331</v>
       </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="S24" s="5"/>
-      <c r="T24" s="10"/>
       <c r="X24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
@@ -4269,27 +5142,39 @@
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="e">
+      <c r="E26" s="4">
         <f>AVERAGE(F26:G26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4" t="e">
+        <v>0.65450000000000008</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="I26" s="4">
         <f>AVERAGE(J26:K26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4" t="e">
+        <v>0.5464</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="M26" s="4">
         <f>AVERAGE(N26:O26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="Q26" s="4" t="e">
+        <v>0.62714999999999999</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.6724</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="Q26" s="4">
         <f>AVERAGE(E26,I26,M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.60935000000000006</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
@@ -4297,27 +5182,39 @@
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="e">
+      <c r="E27" s="4">
         <f>AVERAGE(F27:G27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4" t="e">
+        <v>0.68069999999999997</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="I27" s="4">
         <f>AVERAGE(J27:K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4" t="e">
+        <v>0.60234999999999994</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="M27" s="4">
         <f>AVERAGE(N27:O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="Q27" s="4" t="e">
+        <v>0.64585000000000004</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="Q27" s="4">
         <f>AVERAGE(E27,I27,M27)</f>
-        <v>#DIV/0!</v>
+        <v>0.64296666666666658</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
@@ -4325,27 +5222,39 @@
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="4">
         <f>AVERAGE(F28:G28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="e">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="I28" s="4">
         <f>AVERAGE(J28:K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="e">
+        <v>0.6009500000000001</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="M28" s="4">
         <f>AVERAGE(N28:O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4" t="e">
+        <v>0.64680000000000004</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.64610000000000001</v>
+      </c>
+      <c r="Q28" s="4">
         <f>AVERAGE(E28,I28,M28)</f>
-        <v>#DIV/0!</v>
+        <v>0.65168333333333339</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
@@ -4353,27 +5262,39 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.70855000000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.63995000000000002</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.64610000000000001</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.65423333333333333</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
@@ -4381,27 +5302,39 @@
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.70015000000000005</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.5948</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.64840000000000009</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.64778333333333338</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -5988,6 +6921,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C89:C93"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C30"/>
@@ -6004,12 +6943,6 @@
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="K79:M79"/>
     <mergeCell ref="P79:R79"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6021,8 +6954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273683D-9349-47F5-A914-A6E49DBBA2D4}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6090,27 +7023,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.67514999999999992</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.6835</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.67479999999999996</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.69391666666666663</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -6233,27 +7178,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.60335000000000005</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.5514</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.5544</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.56128333333333336</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -6375,27 +7332,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.47455000000000003</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.57320000000000004</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.6089</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.54595000000000005</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -8232,6 +9201,11 @@
   <mergeCells count="14">
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C30"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C78:C82"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="K54:M54"/>
@@ -8239,11 +9213,6 @@
     <mergeCell ref="C57:C61"/>
     <mergeCell ref="C64:C68"/>
     <mergeCell ref="C71:C75"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/notebooks_resultados_actuales/Precision_resultados_softmax_2_labels.xlsx
+++ b/notebooks_resultados_actuales/Precision_resultados_softmax_2_labels.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/963db75de59c3a5b/TFG/Codigo/Resultados actuales (softmax 2labels) - 13 Junio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3673" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9149DA4D-B9ED-4B4A-A586-69BA1134F272}"/>
+  <xr:revisionPtr revIDLastSave="4044" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A82B185-0A5F-42AA-B311-BFAC3FF51346}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
+    <workbookView xWindow="15390" yWindow="0" windowWidth="21780" windowHeight="14580" activeTab="6" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bert" sheetId="1" r:id="rId1"/>
     <sheet name="Distilbert" sheetId="2" r:id="rId2"/>
     <sheet name="Roberta" sheetId="3" r:id="rId3"/>
-    <sheet name="W2V" sheetId="4" r:id="rId4"/>
-    <sheet name="RNN" sheetId="5" r:id="rId5"/>
-    <sheet name="Perceptron" sheetId="7" r:id="rId6"/>
-    <sheet name="LR" sheetId="6" r:id="rId7"/>
+    <sheet name="RNN" sheetId="5" r:id="rId4"/>
+    <sheet name="Perceptron" sheetId="7" r:id="rId5"/>
+    <sheet name="LR" sheetId="6" r:id="rId6"/>
+    <sheet name="W2V" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,27 +113,6 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
-      <text>
-        <t xml:space="preserve">[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-Métrica reportada: Recall
-Respuesta:
-    Freeze = False
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={D3A68E1F-5A0D-485F-8F49-FED8BB4D2FE9}</author>
     <author>tc={B7D07111-39C9-4EFB-BB36-7FAD3E5C4B84}</author>
     <author>tc={47773724-C227-45A1-8A68-B193F2C3C8B3}</author>
@@ -173,7 +152,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AE7DD8BD-D931-430C-BAE5-CA68262F7D4A}</author>
@@ -191,7 +170,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E4A39D1C-F4E0-4FCF-AF74-6DB14E86F537}</author>
@@ -220,8 +199,29 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+Métrica reportada: Recall
+Respuesta:
+    Freeze = False
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="17">
   <si>
     <t>ABOUT</t>
   </si>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +312,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,6 +443,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,20 +807,6 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2023-05-14T08:09:56.73" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
-    <text xml:space="preserve">
-Métrica reportada: Recall
-</text>
-  </threadedComment>
-  <threadedComment ref="B3" dT="2023-06-26T12:16:39.05" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{90DEC44A-5228-42DB-AF91-797008819A83}" parentId="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
-    <text xml:space="preserve">Freeze = False
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2023-06-03T17:44:39.02" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{D3A68E1F-5A0D-485F-8F49-FED8BB4D2FE9}">
     <text>Parámetros: lr = 5e-5, resto igual que el otro</text>
   </threadedComment>
@@ -826,7 +830,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2023-06-25T11:39:37.25" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{AE7DD8BD-D931-430C-BAE5-CA68262F7D4A}">
     <text>Esta versión tiene las dependencias añadidas al final de la oración y así crea un vocabulario único. NO usa el modelo lstm para dependencias ni usa la clase vocabulary</text>
@@ -834,7 +838,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B3" dT="2023-06-25T11:39:37.25" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{E4A39D1C-F4E0-4FCF-AF74-6DB14E86F537}">
     <text>Esta versión tiene las dependencias añadidas al final de la oración y así crea un vocabulario único. NO usa el modelo lstm para dependencias ni usa la clase vocabulary</text>
@@ -849,12 +853,26 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2023-05-14T08:09:56.73" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
+    <text xml:space="preserve">
+Métrica reportada: Recall
+</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2023-06-26T12:16:39.05" personId="{23FE1CFB-6B9A-4DE7-857E-3C23FF2DC895}" id="{90DEC44A-5228-42DB-AF91-797008819A83}" parentId="{62A5B0C8-E3E9-4F8B-B77C-363EB58E3F08}">
+    <text xml:space="preserve">Freeze = False
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E26A9-A2F2-404A-999E-6E77A4CF5C8B}">
   <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:H47"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1772,7 @@
   <dimension ref="B2:Z30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:H48"/>
+      <selection activeCell="D33" sqref="D33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7238-AC9A-4DAC-9CB9-21573789F53B}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,27 +3488,39 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="e">
+      <c r="E29" s="4">
         <f>AVERAGE(F29:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="e">
+        <v>0.84775</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="I29" s="4">
         <f>AVERAGE(J29:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4" t="e">
+        <v>0.71594999999999998</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.7268</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="M29" s="4">
         <f>AVERAGE(N29:O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4" t="e">
+        <v>0.72894999999999999</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="Q29" s="4">
         <f>AVERAGE(E29,I29,M29)</f>
-        <v>#DIV/0!</v>
+        <v>0.76421666666666666</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
@@ -3498,27 +3528,39 @@
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="4">
         <f>AVERAGE(F30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="e">
+        <v>0.84505000000000008</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.8387</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="I30" s="4">
         <f>AVERAGE(J30:K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4" t="e">
+        <v>0.72165000000000001</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.7107</v>
+      </c>
+      <c r="M30" s="4">
         <f>AVERAGE(N30:O30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4" t="e">
+        <v>0.73285</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="Q30" s="4">
         <f>AVERAGE(E30,I30,M30)</f>
-        <v>#DIV/0!</v>
+        <v>0.76651666666666662</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
@@ -3540,921 +3582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B49FAB-0ACA-47EA-837C-9E6960F12538}">
-  <dimension ref="B2:Z31"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:I47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="V3" s="9"/>
-      <c r="X3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <f>AVERAGE(F5:G5)</f>
-        <v>0.62850000000000006</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.71030000000000004</v>
-      </c>
-      <c r="I5" s="4">
-        <f>AVERAGE(J5:K5)</f>
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.54349999999999998</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="M5" s="4">
-        <f>AVERAGE(N5:O5)</f>
-        <v>0.54790000000000005</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.54090000000000005</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.55489999999999995</v>
-      </c>
-      <c r="Q5" s="4">
-        <f>AVERAGE(E5,I5,M5)</f>
-        <v>0.57733333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <f>AVERAGE(F6:G6)</f>
-        <v>0.64765000000000006</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.58389999999999997</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.71140000000000003</v>
-      </c>
-      <c r="I6" s="4">
-        <f>AVERAGE(J6:K6)</f>
-        <v>0.57574999999999998</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.57089999999999996</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.5806</v>
-      </c>
-      <c r="M6" s="4">
-        <f>AVERAGE(N6:O6)</f>
-        <v>0.59495000000000009</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.59830000000000005</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>AVERAGE(E6,I6,M6)</f>
-        <v>0.60611666666666675</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <f>AVERAGE(F7:G7)</f>
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.56830000000000003</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.73970000000000002</v>
-      </c>
-      <c r="I7" s="4">
-        <f>AVERAGE(J7:K7)</f>
-        <v>0.5835999999999999</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="M7" s="4">
-        <f>AVERAGE(N7:O7)</f>
-        <v>0.59204999999999997</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0.57369999999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.61040000000000005</v>
-      </c>
-      <c r="Q7" s="4">
-        <f>AVERAGE(E7,I7,M7)</f>
-        <v>0.60988333333333333</v>
-      </c>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <f>AVERAGE(F8:G8)</f>
-        <v>0.65410000000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.58479999999999999</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.72340000000000004</v>
-      </c>
-      <c r="I8" s="4">
-        <f>AVERAGE(J8:K8)</f>
-        <v>0.57584999999999997</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.58489999999999998</v>
-      </c>
-      <c r="M8" s="4">
-        <f>AVERAGE(N8:O8)</f>
-        <v>0.59835000000000005</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.60950000000000004</v>
-      </c>
-      <c r="Q8" s="4">
-        <f>AVERAGE(E8,I8,M8)</f>
-        <v>0.60943333333333338</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <f>AVERAGE(F9:G9)</f>
-        <v>0.64944999999999997</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="I9" s="4">
-        <f>AVERAGE(J9:K9)</f>
-        <v>0.57455000000000001</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.56189999999999996</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="M9" s="4">
-        <f>AVERAGE(N9:O9)</f>
-        <v>0.59305000000000008</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.58340000000000003</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="Q9" s="4">
-        <f>AVERAGE(E9,I9,M9)</f>
-        <v>0.60568333333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
-        <f>AVERAGE(F12:G12)</f>
-        <v>0.42195000000000005</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.51060000000000005</v>
-      </c>
-      <c r="I12" s="4">
-        <f>AVERAGE(J12:K12)</f>
-        <v>0.4073</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="M12" s="4">
-        <f>AVERAGE(N12:O12)</f>
-        <v>0.35175000000000001</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>AVERAGE(E12,I12,M12)</f>
-        <v>0.39366666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <f>AVERAGE(F13:G13)</f>
-        <v>0.47609999999999997</v>
-      </c>
-      <c r="F13">
-        <v>0.45929999999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.4929</v>
-      </c>
-      <c r="I13" s="4">
-        <f>AVERAGE(J13:K13)</f>
-        <v>0.51964999999999995</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="M13" s="4">
-        <f>AVERAGE(N13:O13)</f>
-        <v>0.49465000000000003</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0.5091</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.48020000000000002</v>
-      </c>
-      <c r="Q13" s="4">
-        <f>AVERAGE(E13,I13,M13)</f>
-        <v>0.49679999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <f>AVERAGE(F14:G14)</f>
-        <v>0.51235000000000008</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.50690000000000002</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.51780000000000004</v>
-      </c>
-      <c r="I14" s="4">
-        <f>AVERAGE(J14:K14)</f>
-        <v>0.50449999999999995</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.4839</v>
-      </c>
-      <c r="M14" s="4">
-        <f>AVERAGE(N14:O14)</f>
-        <v>0.52449999999999997</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.55679999999999996</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.49220000000000003</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>AVERAGE(E14,I14,M14)</f>
-        <v>0.51378333333333337</v>
-      </c>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <f>AVERAGE(F15:G15)</f>
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.49869999999999998</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.51329999999999998</v>
-      </c>
-      <c r="I15" s="4">
-        <f>AVERAGE(J15:K15)</f>
-        <v>0.5161</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.48949999999999999</v>
-      </c>
-      <c r="M15" s="4">
-        <f>AVERAGE(N15:O15)</f>
-        <v>0.48969999999999997</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.50139999999999996</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>AVERAGE(E15,I15,M15)</f>
-        <v>0.50393333333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <f>AVERAGE(F16:G16)</f>
-        <v>0.51334999999999997</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.50690000000000002</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.51980000000000004</v>
-      </c>
-      <c r="I16" s="4">
-        <f>AVERAGE(J16:K16)</f>
-        <v>0.49544999999999995</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="M16" s="4">
-        <f>AVERAGE(N16:O16)</f>
-        <v>0.49629999999999996</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.4824</v>
-      </c>
-      <c r="Q16" s="4">
-        <f>AVERAGE(E16,I16,M16)</f>
-        <v>0.50169999999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4">
-        <f>AVERAGE(F19:G19)</f>
-        <v>0.55265000000000009</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.50980000000000003</v>
-      </c>
-      <c r="I19" s="4">
-        <f>AVERAGE(J19:K19)</f>
-        <v>0.49834999999999996</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.5151</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.48159999999999997</v>
-      </c>
-      <c r="M19" s="4">
-        <f>AVERAGE(N19:O19)</f>
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.4647</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.48370000000000002</v>
-      </c>
-      <c r="Q19" s="4">
-        <f>AVERAGE(E19,I19,M19)</f>
-        <v>0.50840000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
-        <f>AVERAGE(F20:G20)</f>
-        <v>0.48139999999999999</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.46489999999999998</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <f>AVERAGE(J20:K20)</f>
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.50780000000000003</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.47620000000000001</v>
-      </c>
-      <c r="M20" s="4">
-        <f>AVERAGE(N20:O20)</f>
-        <v>0.49745</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.5131</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.48180000000000001</v>
-      </c>
-      <c r="Q20" s="4">
-        <f>AVERAGE(E20,I20,M20)</f>
-        <v>0.49028333333333335</v>
-      </c>
-      <c r="X20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4">
-        <f>AVERAGE(F21:G21)</f>
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.51910000000000001</v>
-      </c>
-      <c r="I21" s="4">
-        <f>AVERAGE(J21:K21)</f>
-        <v>0.53079999999999994</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.55510000000000004</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="M21" s="4">
-        <f>AVERAGE(N21:O21)</f>
-        <v>0.50255000000000005</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.4834</v>
-      </c>
-      <c r="Q21" s="4">
-        <f>AVERAGE(E21,I21,M21)</f>
-        <v>0.51411666666666667</v>
-      </c>
-      <c r="X21" s="8"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4">
-        <f>AVERAGE(F22:G22)</f>
-        <v>0.48725000000000002</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.46660000000000001</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="I22" s="4">
-        <f>AVERAGE(J22:K22)</f>
-        <v>0.49240000000000006</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.50470000000000004</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.48010000000000003</v>
-      </c>
-      <c r="M22" s="4">
-        <f>AVERAGE(N22:O22)</f>
-        <v>0.52759999999999996</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0.49559999999999998</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>AVERAGE(E22,I22,M22)</f>
-        <v>0.50241666666666662</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="X22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4">
-        <f>AVERAGE(F23:G23)</f>
-        <v>0.50045000000000006</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.49080000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.5101</v>
-      </c>
-      <c r="I23" s="4">
-        <f>AVERAGE(J23:K23)</f>
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.53490000000000004</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.48709999999999998</v>
-      </c>
-      <c r="M23" s="4">
-        <f>AVERAGE(N23:O23)</f>
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0.48659999999999998</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="4">
-        <f>AVERAGE(E23,I23,M23)</f>
-        <v>0.50624999999999998</v>
-      </c>
-      <c r="X23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
-      <c r="X24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4">
-        <f>AVERAGE(F26:G26)</f>
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.76049999999999995</v>
-      </c>
-      <c r="I26" s="4">
-        <f>AVERAGE(J26:K26)</f>
-        <v>0.56269999999999998</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.5605</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.56489999999999996</v>
-      </c>
-      <c r="M26" s="4">
-        <f>AVERAGE(N26:O26)</f>
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0.67059999999999997</v>
-      </c>
-      <c r="Q26" s="4">
-        <f>AVERAGE(E26,I26,M26)</f>
-        <v>0.63436666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4">
-        <f>AVERAGE(F27:G27)</f>
-        <v>0.6641999999999999</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.72319999999999995</v>
-      </c>
-      <c r="I27" s="4">
-        <f>AVERAGE(J27:K27)</f>
-        <v>0.58309999999999995</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.57850000000000001</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.5877</v>
-      </c>
-      <c r="M27" s="4">
-        <f>AVERAGE(N27:O27)</f>
-        <v>0.59495000000000009</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.59650000000000003</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>AVERAGE(E27,I27,M27)</f>
-        <v>0.61408333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4">
-        <f>AVERAGE(F28:G28)</f>
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.66010000000000002</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.68810000000000004</v>
-      </c>
-      <c r="I28" s="4">
-        <f>AVERAGE(J28:K28)</f>
-        <v>0.56545000000000001</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.56889999999999996</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="M28" s="4">
-        <f>AVERAGE(N28:O28)</f>
-        <v>0.5906499999999999</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.59919999999999995</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0.58209999999999995</v>
-      </c>
-      <c r="Q28" s="4">
-        <f>AVERAGE(E28,I28,M28)</f>
-        <v>0.61006666666666665</v>
-      </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4">
-        <f>AVERAGE(F29:G29)</f>
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.60389999999999999</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="I29" s="4">
-        <f>AVERAGE(J29:K29)</f>
-        <v>0.56240000000000001</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.57069999999999999</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.55410000000000004</v>
-      </c>
-      <c r="M29" s="4">
-        <f>AVERAGE(N29:O29)</f>
-        <v>0.59050000000000002</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0.57830000000000004</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>AVERAGE(E29,I29,M29)</f>
-        <v>0.59730000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4">
-        <f>AVERAGE(F30:G30)</f>
-        <v>0.64380000000000004</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.58430000000000004</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="I30" s="4">
-        <f>AVERAGE(J30:K30)</f>
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.56540000000000001</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.56920000000000004</v>
-      </c>
-      <c r="M30" s="4">
-        <f>AVERAGE(N30:O30)</f>
-        <v>0.5867</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="Q30" s="4">
-        <f>AVERAGE(E30,I30,M30)</f>
-        <v>0.59926666666666673</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CEDD4F-00F4-4759-BADF-925A3EF47615}">
   <dimension ref="A2:Z141"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I49"/>
+      <selection activeCell="E33" sqref="E33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6921,12 +6053,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C89:C93"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C30"/>
@@ -6943,6 +6069,12 @@
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="K79:M79"/>
     <mergeCell ref="P79:R79"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6950,12 +6082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273683D-9349-47F5-A914-A6E49DBBA2D4}">
   <dimension ref="B2:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7063,27 +6195,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.66844999999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.71661666666666657</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -7091,27 +6235,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.8145</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.66854999999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.67005000000000003</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.71770000000000012</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7119,27 +6275,39 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.66744999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.66915000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
+        <v>0.7164666666666667</v>
       </c>
       <c r="S8" s="5"/>
     </row>
@@ -7148,27 +6316,39 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.6653</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.66775000000000007</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.71768333333333345</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7218,27 +6398,39 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.52354999999999996</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.5202</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.51754999999999995</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.5282</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7246,27 +6438,39 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.59084999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.56505000000000005</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.49540000000000001</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.55393333333333339</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7274,27 +6478,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.5121</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.5101</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.5141</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.58374999999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.53795000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7302,27 +6518,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.49695</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.4874</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.57955000000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.53343333333333331</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -7372,27 +6600,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.47165000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.4798</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.60304999999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.5948</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.61525000000000007</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.56331666666666669</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
@@ -7402,27 +6642,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.47675000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.4672</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.61495</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.56693333333333329</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
@@ -7432,27 +6684,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.47509999999999997</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.46279999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.4874</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.61319999999999997</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.61735000000000007</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.56338333333333335</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
@@ -7462,35 +6726,45 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.47955000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.4718</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.60729999999999995</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="5"/>
+        <v>0.57351666666666679</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="S24" s="5"/>
       <c r="X24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
@@ -7655,12 +6929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB62CAC-DE19-41CF-86AA-CEEB3C8CECB3}">
   <dimension ref="B2:Z82"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,27 +7005,39 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="e">
+        <v>0.77144999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="I5" s="4">
         <f>AVERAGE(J5:K5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="4" t="e">
+        <v>0.61314999999999997</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="M5" s="4">
         <f>AVERAGE(N5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="e">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="Q5" s="4">
         <f>AVERAGE(E5,I5,M5)</f>
-        <v>#DIV/0!</v>
+        <v>0.66586666666666661</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -7759,27 +7045,39 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="e">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="e">
+        <v>0.76634999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.6925</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="I6" s="4">
         <f>AVERAGE(J6:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4" t="e">
+        <v>0.60739999999999994</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="M6" s="4">
         <f>AVERAGE(N6:O6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4" t="e">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.6411</v>
+      </c>
+      <c r="Q6" s="4">
         <f>AVERAGE(E6,I6,M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.66434999999999989</v>
       </c>
       <c r="T6" s="10"/>
       <c r="V6" s="10"/>
@@ -7789,27 +7087,39 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="e">
+      <c r="E7" s="4">
         <f>AVERAGE(F7:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4" t="e">
+        <v>0.76645000000000008</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="I7" s="4">
         <f>AVERAGE(J7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4" t="e">
+        <v>0.60200000000000009</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="M7" s="4">
         <f>AVERAGE(N7:O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4" t="e">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="Q7" s="4">
         <f>AVERAGE(E7,I7,M7)</f>
-        <v>#DIV/0!</v>
+        <v>0.6644500000000001</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -7817,56 +7127,79 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="e">
+      <c r="E8" s="4">
         <f>AVERAGE(F8:G8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="e">
+        <v>0.76089999999999991</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I8" s="4">
         <f>AVERAGE(J8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4" t="e">
+        <v>0.59844999999999993</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.61329999999999996</v>
+      </c>
+      <c r="M8" s="4">
         <f>AVERAGE(N8:O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4" t="e">
+        <v>0.61</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="Q8" s="4">
         <f>AVERAGE(E8,I8,M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="5"/>
+        <v>0.65644999999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="e">
+      <c r="E9" s="4">
         <f>AVERAGE(F9:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4" t="e">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="I9" s="4">
         <f>AVERAGE(J9:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4" t="e">
+        <v>0.60304999999999997</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="M9" s="4">
         <f>AVERAGE(N9:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4" t="e">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="Q9" s="4">
         <f>AVERAGE(E9,I9,M9)</f>
-        <v>#DIV/0!</v>
+        <v>0.66311666666666669</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -7876,27 +7209,39 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
+      <c r="E12" s="4">
         <f>AVERAGE(F12:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4" t="e">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="I12" s="4">
         <f>AVERAGE(J12:K12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4" t="e">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.5544</v>
+      </c>
+      <c r="M12" s="4">
         <f>AVERAGE(N12:O12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="4" t="e">
+        <v>0.53194999999999992</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="Q12" s="4">
         <f>AVERAGE(E12,I12,M12)</f>
-        <v>#DIV/0!</v>
+        <v>0.5449166666666666</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -7904,27 +7249,39 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="e">
+      <c r="E13" s="4">
         <f>AVERAGE(F13:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4" t="e">
+        <v>0.50740000000000007</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="I13" s="4">
         <f>AVERAGE(J13:K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4" t="e">
+        <v>0.58165</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="M13" s="4">
         <f>AVERAGE(N13:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="4" t="e">
+        <v>0.54354999999999998</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.5827</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="Q13" s="4">
         <f>AVERAGE(E13,I13,M13)</f>
-        <v>#DIV/0!</v>
+        <v>0.54420000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -7932,27 +7289,39 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="4">
         <f>AVERAGE(F14:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="e">
+        <v>0.52584999999999993</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="I14" s="4">
         <f>AVERAGE(J14:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4" t="e">
+        <v>0.54635</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M14" s="4">
         <f>AVERAGE(N14:O14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="4" t="e">
+        <v>0.5333</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="Q14" s="4">
         <f>AVERAGE(E14,I14,M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.53516666666666668</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -7960,27 +7329,39 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="e">
+      <c r="E15" s="4">
         <f>AVERAGE(F15:G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="e">
+        <v>0.52734999999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.53720000000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="I15" s="4">
         <f>AVERAGE(J15:K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4" t="e">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="M15" s="4">
         <f>AVERAGE(N15:O15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4" t="e">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="Q15" s="4">
         <f>AVERAGE(E15,I15,M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.5412499999999999</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -7988,27 +7369,39 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="e">
+      <c r="E16" s="4">
         <f>AVERAGE(F16:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="e">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="I16" s="4">
         <f>AVERAGE(J16:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4" t="e">
+        <v>0.59684999999999999</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.55720000000000003</v>
+      </c>
+      <c r="M16" s="4">
         <f>AVERAGE(N16:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4" t="e">
+        <v>0.53899999999999992</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.5101</v>
+      </c>
+      <c r="Q16" s="4">
         <f>AVERAGE(E16,I16,M16)</f>
-        <v>#DIV/0!</v>
+        <v>0.55471666666666664</v>
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
@@ -8022,27 +7415,39 @@
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="4">
         <f>AVERAGE(F19:G19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4" t="e">
+        <v>0.4577</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.4541</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="I19" s="4">
         <f>AVERAGE(J19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4" t="e">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="M19" s="4">
         <f>AVERAGE(N19:O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="4" t="e">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="Q19" s="4">
         <f>AVERAGE(E19,I19,M19)</f>
-        <v>#DIV/0!</v>
+        <v>0.55303333333333338</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -8050,27 +7455,39 @@
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="e">
+      <c r="E20" s="4">
         <f>AVERAGE(F20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4" t="e">
+        <v>0.46934999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.4652</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="I20" s="4">
         <f>AVERAGE(J20:K20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4" t="e">
+        <v>0.61575000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="M20" s="4">
         <f>AVERAGE(N20:O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="4" t="e">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="Q20" s="4">
         <f>AVERAGE(E20,I20,M20)</f>
-        <v>#DIV/0!</v>
+        <v>0.5618333333333333</v>
       </c>
       <c r="X20" s="8"/>
       <c r="Z20" s="8"/>
@@ -8080,27 +7497,39 @@
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4" t="e">
+      <c r="E21" s="4">
         <f>AVERAGE(F21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4" t="e">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.46460000000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.4778</v>
+      </c>
+      <c r="I21" s="4">
         <f>AVERAGE(J21:K21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4" t="e">
+        <v>0.62264999999999993</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="M21" s="4">
         <f>AVERAGE(N21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="4" t="e">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="Q21" s="4">
         <f>AVERAGE(E21,I21,M21)</f>
-        <v>#DIV/0!</v>
+        <v>0.56974999999999998</v>
       </c>
       <c r="X21" s="8"/>
       <c r="Z21" s="8"/>
@@ -8110,27 +7539,39 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="e">
+      <c r="E22" s="4">
         <f>AVERAGE(F22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4" t="e">
+        <v>0.4698</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.4637</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="I22" s="4">
         <f>AVERAGE(J22:K22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4" t="e">
+        <v>0.60549999999999993</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.58979999999999999</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="M22" s="4">
         <f>AVERAGE(N22:O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="4" t="e">
+        <v>0.6018</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="Q22" s="4">
         <f>AVERAGE(E22,I22,M22)</f>
-        <v>#DIV/0!</v>
+        <v>0.55903333333333327</v>
       </c>
       <c r="X22" s="8"/>
       <c r="Z22" s="8"/>
@@ -8140,28 +7581,40 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="e">
+      <c r="E23" s="4">
         <f>AVERAGE(F23:G23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4" t="e">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.4783</v>
+      </c>
+      <c r="I23" s="4">
         <f>AVERAGE(J23:K23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="4" t="e">
+        <v>0.62349999999999994</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="M23" s="4">
         <f>AVERAGE(N23:O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+        <v>0.61410000000000009</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.60850000000000004</v>
+      </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4" t="e">
+      <c r="Q23" s="4">
         <f>AVERAGE(E23,I23,M23)</f>
-        <v>#DIV/0!</v>
+        <v>0.57016666666666671</v>
       </c>
       <c r="S23" s="5"/>
       <c r="X23" s="8"/>
@@ -9199,6 +8652,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C71:C75"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="E2:G2"/>
@@ -9206,13 +8666,1150 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C71:C75"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B49FAB-0ACA-47EA-837C-9E6960F12538}">
+  <dimension ref="B2:Z38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="X3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23">
+        <f>AVERAGE(F5:G5)</f>
+        <v>0.62850000000000006</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23">
+        <f>AVERAGE(J5:K5)</f>
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23">
+        <f>AVERAGE(N5:O5)</f>
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23">
+        <f>AVERAGE(E5,I5,M5)</f>
+        <v>0.57733333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <f>AVERAGE(F6:G6)</f>
+        <v>0.64765000000000006</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23">
+        <f>AVERAGE(J6:K6)</f>
+        <v>0.57574999999999998</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.5806</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23">
+        <f>AVERAGE(N6:O6)</f>
+        <v>0.59495000000000009</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23">
+        <f>AVERAGE(E6,I6,M6)</f>
+        <v>0.60611666666666675</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23">
+        <f>AVERAGE(F7:G7)</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23">
+        <f>AVERAGE(J7:K7)</f>
+        <v>0.5835999999999999</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23">
+        <f>AVERAGE(N7:O7)</f>
+        <v>0.59204999999999997</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="23">
+        <f>AVERAGE(E7,I7,M7)</f>
+        <v>0.60988333333333333</v>
+      </c>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23">
+        <f>AVERAGE(F8:G8)</f>
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23">
+        <f>AVERAGE(J8:K8)</f>
+        <v>0.57584999999999997</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="23">
+        <f>AVERAGE(N8:O8)</f>
+        <v>0.59835000000000005</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23">
+        <f>AVERAGE(E8,I8,M8)</f>
+        <v>0.60943333333333338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23">
+        <f>AVERAGE(F9:G9)</f>
+        <v>0.64944999999999997</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23">
+        <f>AVERAGE(J9:K9)</f>
+        <v>0.57455000000000001</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.56189999999999996</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23">
+        <f>AVERAGE(N9:O9)</f>
+        <v>0.59305000000000008</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23">
+        <f>AVERAGE(E9,I9,M9)</f>
+        <v>0.60568333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4">
+        <f>AVERAGE(F12:G12)</f>
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="I12" s="4">
+        <f>AVERAGE(J12:K12)</f>
+        <v>0.55525000000000002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.5494</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="M12" s="4">
+        <f>AVERAGE(N12:O12)</f>
+        <v>0.58335000000000004</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>AVERAGE(E12,I12,M12)</f>
+        <v>0.61136666666666672</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <f>AVERAGE(F13:G13)</f>
+        <v>0.71445000000000003</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.6532</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="I13" s="4">
+        <f>AVERAGE(J13:K13)</f>
+        <v>0.59794999999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="M13" s="4">
+        <f>AVERAGE(N13:O13)</f>
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>AVERAGE(E13,I13,M13)</f>
+        <v>0.64123333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <f>AVERAGE(F14:G14)</f>
+        <v>0.7268</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="I14" s="4">
+        <f>AVERAGE(J14:K14)</f>
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="M14" s="4">
+        <f>AVERAGE(N14:O14)</f>
+        <v>0.6159</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>AVERAGE(E14,I14,M14)</f>
+        <v>0.64836666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <f>AVERAGE(F15:G15)</f>
+        <v>0.7138500000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="I15" s="4">
+        <f>AVERAGE(J15:K15)</f>
+        <v>0.59915000000000007</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="M15" s="4">
+        <f>AVERAGE(N15:O15)</f>
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.6079</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>AVERAGE(E15,I15,M15)</f>
+        <v>0.63970000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="e">
+        <f>AVERAGE(F16:G16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="e">
+        <f>AVERAGE(J16:K16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4" t="e">
+        <f>AVERAGE(N16:O16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="4" t="e">
+        <f>AVERAGE(E16,I16,M16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
+        <f>AVERAGE(F19:G19)</f>
+        <v>0.42195000000000005</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="I19" s="4">
+        <f>AVERAGE(J19:K19)</f>
+        <v>0.4073</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="M19" s="4">
+        <f>AVERAGE(N19:O19)</f>
+        <v>0.35175000000000001</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>AVERAGE(E19,I19,M19)</f>
+        <v>0.39366666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <f>AVERAGE(F20:G20)</f>
+        <v>0.47609999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.4929</v>
+      </c>
+      <c r="I20" s="4">
+        <f>AVERAGE(J20:K20)</f>
+        <v>0.51964999999999995</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="M20" s="4">
+        <f>AVERAGE(N20:O20)</f>
+        <v>0.49465000000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.5091</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>AVERAGE(E20,I20,M20)</f>
+        <v>0.49679999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4">
+        <f>AVERAGE(F21:G21)</f>
+        <v>0.51235000000000008</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="I21" s="4">
+        <f>AVERAGE(J21:K21)</f>
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.4839</v>
+      </c>
+      <c r="M21" s="4">
+        <f>AVERAGE(N21:O21)</f>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>AVERAGE(E21,I21,M21)</f>
+        <v>0.51378333333333337</v>
+      </c>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <f>AVERAGE(F22:G22)</f>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="I22" s="4">
+        <f>AVERAGE(J22:K22)</f>
+        <v>0.5161</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <f>AVERAGE(N22:O22)</f>
+        <v>0.48969999999999997</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>AVERAGE(E22,I22,M22)</f>
+        <v>0.50393333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4">
+        <f>AVERAGE(F23:G23)</f>
+        <v>0.51334999999999997</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="I23" s="4">
+        <f>AVERAGE(J23:K23)</f>
+        <v>0.49544999999999995</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="M23" s="4">
+        <f>AVERAGE(N23:O23)</f>
+        <v>0.49629999999999996</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.4824</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>AVERAGE(E23,I23,M23)</f>
+        <v>0.50169999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
+        <f>AVERAGE(F26:G26)</f>
+        <v>0.55265000000000009</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="I26" s="4">
+        <f>AVERAGE(J26:K26)</f>
+        <v>0.49834999999999996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.5151</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="M26" s="4">
+        <f>AVERAGE(N26:O26)</f>
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.4647</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>AVERAGE(E26,I26,M26)</f>
+        <v>0.50840000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <f>AVERAGE(F27:G27)</f>
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="I27" s="4">
+        <f>AVERAGE(J27:K27)</f>
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="M27" s="4">
+        <f>AVERAGE(N27:O27)</f>
+        <v>0.49745</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.5131</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>AVERAGE(E27,I27,M27)</f>
+        <v>0.49028333333333335</v>
+      </c>
+      <c r="X27" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4">
+        <f>AVERAGE(F28:G28)</f>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="I28" s="4">
+        <f>AVERAGE(J28:K28)</f>
+        <v>0.53079999999999994</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="M28" s="4">
+        <f>AVERAGE(N28:O28)</f>
+        <v>0.50255000000000005</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.4834</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>AVERAGE(E28,I28,M28)</f>
+        <v>0.51411666666666667</v>
+      </c>
+      <c r="X28" s="8"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4">
+        <f>AVERAGE(F29:G29)</f>
+        <v>0.48725000000000002</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="I29" s="4">
+        <f>AVERAGE(J29:K29)</f>
+        <v>0.49240000000000006</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="M29" s="4">
+        <f>AVERAGE(N29:O29)</f>
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>AVERAGE(E29,I29,M29)</f>
+        <v>0.50241666666666662</v>
+      </c>
+      <c r="T29" s="10"/>
+      <c r="X29" s="8"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4">
+        <f>AVERAGE(F30:G30)</f>
+        <v>0.50045000000000006</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.5101</v>
+      </c>
+      <c r="I30" s="4">
+        <f>AVERAGE(J30:K30)</f>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="M30" s="4">
+        <f>AVERAGE(N30:O30)</f>
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="4">
+        <f>AVERAGE(E30,I30,M30)</f>
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="X30" s="8"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="S31" s="5"/>
+      <c r="X31" s="8"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4">
+        <f>AVERAGE(F33:G33)</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="I33" s="4">
+        <f>AVERAGE(J33:K33)</f>
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.5605</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="M33" s="4">
+        <f>AVERAGE(N33:O33)</f>
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>AVERAGE(E33,I33,M33)</f>
+        <v>0.63436666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4">
+        <f>AVERAGE(F34:G34)</f>
+        <v>0.6641999999999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="I34" s="4">
+        <f>AVERAGE(J34:K34)</f>
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.5877</v>
+      </c>
+      <c r="M34" s="4">
+        <f>AVERAGE(N34:O34)</f>
+        <v>0.59495000000000009</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>AVERAGE(E34,I34,M34)</f>
+        <v>0.61408333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="14"/>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4">
+        <f>AVERAGE(F35:G35)</f>
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I35" s="4">
+        <f>AVERAGE(J35:K35)</f>
+        <v>0.56545000000000001</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="M35" s="4">
+        <f>AVERAGE(N35:O35)</f>
+        <v>0.5906499999999999</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>AVERAGE(E35,I35,M35)</f>
+        <v>0.61006666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <f>AVERAGE(F36:G36)</f>
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="I36" s="4">
+        <f>AVERAGE(J36:K36)</f>
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="M36" s="4">
+        <f>AVERAGE(N36:O36)</f>
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>AVERAGE(E36,I36,M36)</f>
+        <v>0.59730000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="14"/>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4">
+        <f>AVERAGE(F37:G37)</f>
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="I37" s="4">
+        <f>AVERAGE(J37:K37)</f>
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="M37" s="4">
+        <f>AVERAGE(N37:O37)</f>
+        <v>0.5867</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>AVERAGE(E37,I37,M37)</f>
+        <v>0.59926666666666673</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
